--- a/datasets/five_one_ab.xlsx
+++ b/datasets/five_one_ab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34C7CF9-2D9C-43FA-9241-50DF50AD1824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE822F1B-0368-4F76-B727-5E483435DDA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="2670" windowWidth="28725" windowHeight="17985" xr2:uid="{3DD27C6A-3BEF-4077-94FB-52C8F476BC85}"/>
+    <workbookView xWindow="8040" yWindow="2700" windowWidth="28710" windowHeight="17985" xr2:uid="{3DD27C6A-3BEF-4077-94FB-52C8F476BC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,16 +45,16 @@
     <t>Male-High income</t>
   </si>
   <si>
-    <t>Male-Middle income</t>
-  </si>
-  <si>
     <t>Female-Low income</t>
   </si>
   <si>
-    <t>Female-Middle income</t>
+    <t>Female-High income</t>
   </si>
   <si>
-    <t>Female-High income</t>
+    <t>Male-Average income</t>
+  </si>
+  <si>
+    <t>Female-Average income</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
